--- a/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_d'Oujda/Faculté_de_médecine_et_de_pharmacie_d'Oujda.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_d'Oujda/Faculté_de_médecine_et_de_pharmacie_d'Oujda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine et de pharmacie d'Oujda (FMP-Oujda) est l'un des cinq établissements d'enseignement supérieur public marocain de médecine et de pharmacie. Elle est affiliée à l'université Mohamed Ier d'Oujda. Créée en 2008, elle est donc la plus jeune des facultés de médecine du royaume. Elle accueille chaque année deux cents étudiants encadrés par une quarantaine d’enseignants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la réussite au baccalauréat et du concours d’accès  à la FMPO, le cursus se divise en 3 cycles:
 le 1er cycle se constitue des deux premières années .
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Doyen : Pr Serraj Khalid
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Missions et objectifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Faculté de Médecine et de pharmacie d’Oujda ; comme toutes les autres facultés du Royaume ; a  des missions qui consistent en :
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>La faculté en chiffres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un grand CHU : CHU Mohammed VI .
 Aux environs de 1 800 étudiants venus d'Oujda et des villes avoisinantes, dont 300 étrangers notamment des tunisiens, des étudiants du moyen orient et des subsahariens.
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +685,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le bâtiment siège de la Faculté, comprend les services administratifs et techniques, quatre amphithéâtres et plus d’une dizaine salles d’enseignements. Un bloc abrite les laboratoires.
 Étudiants, enseignants, chercheurs et personnels ont à leur disposition :
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_d%27Oujda</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_d'Oujda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +725,9 @@
           <t>Vie estudiantine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie estudiantine à la faculté de Médecine et de Pharmacie d'Oujda est particulièrement animée, notamment grâce au Conseil des étudiants et à l'Union Culturelle des Etudiants en Medecine UCEMO,  une association qui réunit les étudiants dont le but d'animer la vie estudiantine que ce soit dans le domaine médical, social, sportif et culturelle. Cette dernière permet aussi l'ouverture de la Faculté au monde, en offrant des échanges professionnels et de recherches à travers la planète aux étudiants. UCEMO est devenu comité local d'IFMSA-Morocco et est considérée comme l'une des meilleurs associations estudiantine d'Oujda.
 </t>
